--- a/Самообучение_#_$$_JavaScript_Back.xlsx
+++ b/Самообучение_#_$$_JavaScript_Back.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAD4F00-3EAA-4C13-9D68-07561FD5F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC22D3C-46BF-45A0-A3E0-EB0BB2BA9E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крутой онлайн debugger" sheetId="1" r:id="rId1"/>
     <sheet name="Console." sheetId="3" r:id="rId2"/>
     <sheet name="js Back" sheetId="4" r:id="rId3"/>
-    <sheet name="Array и Object StreamAPI" sheetId="8" r:id="rId4"/>
-    <sheet name="js snippets" sheetId="10" r:id="rId5"/>
-    <sheet name="empty" sheetId="9" r:id="rId6"/>
+    <sheet name="Многопоточность" sheetId="11" r:id="rId4"/>
+    <sheet name="Array и Object StreamAPI" sheetId="8" r:id="rId5"/>
+    <sheet name="js snippets" sheetId="10" r:id="rId6"/>
+    <sheet name="empty" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="758">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -10735,10 +10736,6 @@
     <t>`https://youtu.be/lXbF_Jta6vQ</t>
   </si>
   <si>
-    <t>Заимствования
-call</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Версия 3.1
 </t>
@@ -10814,56 +10811,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Пример как передавать в обычный метод экземпляр объека</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-function toBeep() {
-    console.log(`${this.model} подает сигнал`);
-}
-function Сar(model){
-    this.model = model;
-}
-const car1 = new Сar("BMW");
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>toBeep.call(car1);</t>
-    </r>
-  </si>
-  <si>
     <t>01 24 00</t>
-  </si>
-  <si>
-    <t>apply</t>
   </si>
   <si>
     <r>
@@ -10922,9 +10870,6 @@
 toBeep.call(car1, 1 , 2, 3 );
 toBeep.apply(car1, [1,2,3]); //передаем в виде массива</t>
     </r>
-  </si>
-  <si>
-    <t>bind</t>
   </si>
   <si>
     <r>
@@ -11421,44 +11366,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">function Employee(name, gender, position) {
-    Person.call(this, name, gender);
-    this.position = position;
-}
-Employee.prototype = Person.prototype; //здесь мы непросто реализовали Employee.prototype как Person.prototype, а создали дополнительную ссылку Employee.prototype на участок памяти, в которой хранятся методы Person.prototype. В дальнейшем все новым методы, добавленные в Employee (наследник), будут реализованы и в Person.prototype, что я является </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>неправильным</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!
-Employee.prototype.sayName = function () {
-    console.log(`Меня зовут: ${this.name}`);
-}
-Employee.prototype.sayPosition = function () {
-    console.log(`Меня должность: ${this.name}`);
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">const person = new Person("Паша","м");
 const employee = new Employee("Паша","м","Дворник");
 person.sayName();
@@ -11522,44 +11429,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Правильное наследование функций</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">function Employee(name, gender, position) {
-    Person.call(this, name, gender);
-    this.position = position;
-}
-Employee.prototype = Object.create(Person.prototype); //Object.create является специальной функцией, которая создает объект прототипа внутри другого прототипа. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Правильный подход наследования функций родителя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Employee.prototype.sayName = function () {
-    console.log(`Меня зовут: ${this.name}`);
-}
-Employee.prototype.sayPosition = function () {
-    console.log(`Меня должность: ${this.name}`);
-}</t>
     </r>
   </si>
   <si>
@@ -12795,9 +12664,6 @@
     <t>Урок 8 часть 1</t>
   </si>
   <si>
-    <t>this, Анонимные функции, Замыкания</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -14405,9 +14271,6 @@
   </si>
   <si>
     <t>Урок 9 часть 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексей Кадочников - </t>
   </si>
   <si>
     <t>Используется только в Arrays!</t>
@@ -14596,32 +14459,6 @@
   </si>
   <si>
     <t>filter</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Основной смысл:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> эта функция возвращает false, если
-элемент нужно исключить, и true, чтобы он попал в новый массив.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Метод filter используется для фильтрации элементов массива по правилу,
@@ -14963,34 +14800,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Важно!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Полный аналог forEach Java
-Не создает новый массив. Ничего не возвращает
-Не может изменять массив на месте. Однако если в массиве имеются ссылочного типа переменные, то внутренние поля ссылочных объектов могут быть модифицированы (аналогичная логика у глубокого копирования коллекций с элементами ссылочных типов)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -15020,16 +14829,3183 @@
 };</t>
     </r>
   </si>
+  <si>
+    <t>Импорт нескольких js файлов</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;body&gt;
+    &lt;div class="content"&gt;
+        &lt;button&gt;
+            Click me!
+        &lt;/button&gt;
+        &lt;img src="#" alt=""&gt;
+    &lt;/div&gt;
+    &lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;
+    &lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script.j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s"&gt;&lt;/script&gt;
+    &lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script2.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" type="module"&gt;&lt;/script&gt; // модульная система импорта экспорта
+&lt;/body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>data.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = `
+[
+    {
+      "id": 1,
+      "name": "Leanne Graham",
+      "username": "Bret",
+      "email": "Sincere@april.biz",
+      "address": {
+        "street": "Kulas Light",
+        "suite": "Apt. 556",
+        "city": "Gwenborough",
+        "zipcode": "92998-3874",
+        "geo": {
+          "lat": "-37.3159",
+          "lng": "81.1496"
+        }</t>
+    </r>
+  </si>
+  <si>
+    <t>script.js</t>
+  </si>
+  <si>
+    <r>
+      <t>const parseData = JSON.parse(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);
+console.log(parseData);
+const divEl = document.querySelector('.content');
+parseData.forEach(item =&gt; {
+    divEl.insertAdjacentHTML('beforeend', `
+        &lt;h2&gt;${item.name}&lt;/h2&gt;
+        &lt;p&gt;${item.username}&lt;/p&gt;
+        &lt;span&gt;${item.email}&lt;/span&gt;
+        &lt;span&gt;${item.address.city}&lt;/span&gt;
+    `)
+});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Переменная </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> импортирована из data.js в script.js</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 9 часть 2</t>
+  </si>
+  <si>
+    <t>Подключение js файла к html</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;body&gt;
+    &lt;div class="content"&gt;
+        &lt;button&gt;
+            Click me!
+        &lt;/button&gt;
+        &lt;img src="#" alt=""&gt;
+    &lt;/div&gt;
+    &lt;script src="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script2.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" type="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt; // модульная система импорта экспорта
+&lt;/body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Самоизучение! Async await</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 В случае использования стандартной функции fetch() с использованием стандартного синтаксиса then catch, нет необходимости подключать js файл в качестве модуля
+2 В случае использования современного синтаксиса async await, необходимо указать type="module". У async await под капотом зашита модульная система, предполагающая использования import export связи (смотри выше -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Импорт нескольких js файлов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Условия для успешной работы с async await</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 async await без type="module" не работает!
+2 Работаем с async await (ассинхроном) только через виртуальный сервер (в ином случае будем получать исключения) - live server
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(см 4 четверть_2_HTML_CSS_препроцессоры - scss - Установка препроцессора)</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://developer.mozilla.org/en-US/docs/Web/JavaScript/Guide/Using_promises</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function doSomething() {
+  return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new Promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((resolve) =&gt; {
+    setTimeout(() =&gt; {
+      // Other things to do before completion of the promise
+      console.log("Did something");
+      // The fulfillment value of the promise
+      resolve("https://example.com/");
+    }, 200);
+  });
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myPromise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new Promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((resolve) =&gt; {
+    setTimeout(() =&gt; {
+      // Other things to do before completion of the promise
+      console.log("Did something");
+      // The fulfillment value of the promise
+      resolve("https://example.com/");
+    }, 200);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно - setTimeout (использован, так как данная функция всегда исполняется в многопоточном режиме)! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В js отсутствуют какие-либо функции по типу sleep, которые бы могли остановить поток. js выполняет весь код, который явно написан у него, пока такой код не закончится. window.setTimeout выполнится отдельно от основного кода, даже если этот код давно был завершен.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Многопоточная функция setTimeout позволяет показать работу отдельного потока и его выполнение в основном потоке (основной поток будет ждать setTimeout благодаря ассинхронному Promise)</t>
+    </r>
+  </si>
+  <si>
+    <t>const myPromise = function () {
+    return new Promise((resolve) =&gt; {
+        setTimeout(() =&gt; {
+            // Other things to do before completion of the promise
+            console.log("Did something");
+            // The fulfillment value of the promise
+            resolve("https://dog.ceo/api/breeds/image/random");
+        }, 200)
+    });
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Новый Promise, который вернул предыдущий станет доступен после вызова метода then.
+3 Аргументом нового Promise всегда является результат предыдущего Promise.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Не понял, как можно передать json во внешнюю переменную из Promise</t>
+    </r>
+  </si>
+  <si>
+    <t>const myPromise = new Promise((resolve) =&gt; {
+    setTimeout(() =&gt; {
+        // Other things to do before completion of the promise
+        console.log("Did something");
+        // The fulfillment value of the promise
+        resolve("https://dog.ceo/api/breeds/image/random");
+    }, 200)
+});
+console.log(myPromise);
+const result = myPromise.then(url =&gt; fetch(url));
+console.log(result);</t>
+  </si>
+  <si>
+    <t>const data = result.then(result =&gt; result.json());
+console.log(data);
+const myList = [];
+data.then(data =&gt; {
+    myList.push(data);
+});
+console.log(myList);</t>
+  </si>
+  <si>
+    <t>async await</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение!
+Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Promise всегда выполняет код </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>асинхронно</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> основному потоку. То есть в него можно включать любые строки кода, которые работают с внешними ресурсами, чья скорость ответа может превышать стандартное выполнения кода js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 resolve является функцией, которая получает результат выполнения первого Promise (этакий аналог return, который после своего исполнения возвращает не то значение, которое ей передали в качестве результата, а новый Promise, хранящий этот результат)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resolve передается в качестве единственного аргумента при создании самого первого экземпляра Promise.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если необходимо передать дополнительные аргументы в первый Promise, его инициализацию можно обернуть в function, в которую и передать необходимые аргументы
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Promise === sleep</t>
+  </si>
+  <si>
+    <t>fetch()</t>
+  </si>
+  <si>
+    <t>Метод, возвращающий Promise с объектом, хранящим различную информацию об ответе с сервера, в качестве resolve</t>
+  </si>
+  <si>
+    <t>Версия 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const btnEl = document.querySelector('button');
+btnEl.addEventListener('click', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (e) =&gt; {
+    fetchData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> getData(URL1);
+    const imgEl = document.querySelector('img');
+    imgEl.src = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fetchData.message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>const myPromise = new Promise((resolve, reject) =&gt; {
+})
+console.log(myPromise);
+myPromise
+  .then((value) =&gt; {
+  }).catch((error) =&gt; {
+  })</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Promise - это объект, который используется для реализации ассинхронного выполнения кода.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catch сработает, в случае если resolve на одном из then вернет null</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">То есть скорее всего есть следующий код:
+const myPromise = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) {
+    request(url);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resultObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.header = requestResultHeader;
+    ….
+    return new Promise((resolve) =&gt; {
+        resolve(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resultObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; //сюда передано объект в качестве результата</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    });
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const getData = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (URL1) =&gt; {
+    try {
+        const res = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fetch(URL1); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//не понимаю каким образом await распаковывает Promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        const dataFromServer = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> res.json(); 
+        return dataFromServer;
+    } catch (error) {
+        console.log(error.message);
+    }
+};</t>
+    </r>
+  </si>
+  <si>
+    <t>Многопоточность Promise async await</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример как передать функцию какому-то объекту, классу или функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+function toBeep() {
+    console.log(`${this.model} подает сигнал`);
+}
+function Сar(model){
+    this.model = model;
+}
+const car1 = new Сar("BMW");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toBeep.call(car1);</t>
+    </r>
+  </si>
+  <si>
+    <t>01 24 00
+https://youtu.be/lXbF_Jta6vQ - 00 23 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Заимствования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Возвращает: void
+Вызывает исполнение метода: да</t>
+    </r>
+  </si>
+  <si>
+    <t>apply
+Возвращает: void
+Вызывает исполнение метода: да</t>
+  </si>
+  <si>
+    <t>bind
+Возвращает: функцию объекта, которому была присоединена
+Вызывает исполнение метода: нет</t>
+  </si>
+  <si>
+    <r>
+      <t>function Employee(name, gender, position) {
+    Person.call(this, name, gender);
+    this.position = position;
+}
+Employee.prototype =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Person.prototype;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //здесь мы непросто реализовали Employee.prototype как Person.prototype, а создали дополнительную ссылку Employee.prototype на участок памяти, в которой хранятся методы Person.prototype. В дальнейшем все новым методы, добавленные в Employee (наследник), будут реализованы и в Person.prototype, что я является </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>неправильным</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!
+Employee.prototype.sayName = function () {
+    console.log(`Меня зовут: ${this.name}`);
+}
+Employee.prototype.sayPosition = function () {
+    console.log(`Меня должность: ${this.name}`);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function Employee(name, gender, position) {
+    Person.call(this, name, gender);
+    this.position = position;
+}
+Employee.prototype =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object.create(Person.prototype);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //Object.create является специальной функцией, которая создает объект прототипа внутри другого прототипа. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правильный подход наследования функций родителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Employee.prototype.sayName = function () {
+    console.log(`Меня зовут: ${this.name}`);
+}
+Employee.prototype.sayPosition = function () {
+    console.log(`Меня должность: ${this.name}`);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Никогда не использовать в разработке</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, так как сбивает с толку других разработчиков, использущих функции в которых отсутсвуют параметры
+</t>
+    </r>
+  </si>
+  <si>
+    <t>this, Анонимные функции</t>
+  </si>
+  <si>
+    <t>Ecmas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Основной смысл:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> эта функция возвращает false, если
+элемент нужно исключить, и true, чтобы он попал в новый массив.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семантика:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+array.filter((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Полный аналог forEach Java
+Не создает новый массив. Ничего не возвращает
+Не может изменять массив на месте. Однако если в массиве имеются ссылочного типа переменные, то внутренние поля ссылочных объектов могут быть модифицированы (аналогичная логика у глубокого копирования коллекций с элементами ссылочных типов)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семантика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.filter((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">index, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семантика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.forEach((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">index, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1,2,3,4,5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.forEach((element, index, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Работает только! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Может работать и без браузера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Может работать только с использованием live server</t>
+    </r>
+  </si>
+  <si>
+    <t>Способ 1</t>
+  </si>
+  <si>
+    <t>Способ 2 (Современный)</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;body&gt;
+  &lt;script src="script.js" type="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/script&gt;
+&lt;/body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При использовании type="module" запуск браузера только через live-server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> const myData = "Hello world - Data";
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function helloWorldFunction() {
+    console.log("Hello world - Data");
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const myData = "Hello world - Data";
+function helloWorldFunction() {
+    console.log("Hello world - Data");
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+export {helloWorldFunction, myData};</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 1 (несколько переменных)</t>
+  </si>
+  <si>
+    <t>Вариант 2 (несколько переменных)</t>
+  </si>
+  <si>
+    <t>Вариант 3 (одна переменная)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const myData = "Hello world - Data";
+const helloWorldFunction = () =&gt; {
+    console.log("Hello world - Data");
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export default myData;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import  myData  from "./script2.js";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(myData);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import { helloWorldFunction, myData } from "./script2.js";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(myData);
+helloWorldFunction();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно - только для варианта с default! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если импортируется только одна переменная, то фигурные скобки нужно убрать</t>
+    </r>
+  </si>
+  <si>
+    <t>export { name1, name2, …, nameN };
+export { variable1 as name1, variable2 as name2, …, nameN };
+export let name1, name2, …, nameN; // или var
+export let name1 = …, name2 = …, …, nameN; // или var, const
+export default выражение;
+export default function (…) { … } // или class, function*
+export default function name1(…) { … } // или class, function*
+export { name1 as default, … };
+export * from …;
+export { name1, name2, …, nameN } from …;
+export { import1 as name1, import2 as name2, …, nameN } from …;</t>
+  </si>
+  <si>
+    <t>export/import/type="module"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Без</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> export/import/type="module"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Работает только!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> С использованием браузера и последовательного подключения js файлов. В начале подключаются js файлы, содержащие импортируемые данные. Далее подключаются js, в которые импортируются данные.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Может работать как в offline, так и с использованием live server</t>
+    </r>
+  </si>
+  <si>
+    <t>Множественное объявление переменных</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userNameEl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = document.querySelector('.userNameInput')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>searchBtm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = document.querySelector('.searchUserName')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reposEl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = document.querySelector('.repos')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>favouriteEl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = document.querySelector('.favourites')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Устаревший способ - не использовать</t>
+  </si>
+  <si>
+    <t>Чистые функции</t>
+  </si>
+  <si>
+    <t>Чистые функции - это такие функции которые при вызове с одними и теми
+же параметрами всегда возвращают одинаковое значение, при этом такие
+функции оперируют данными только из полученных аргументов и никак не
+взаимодействуют с глобальными для них переменными.</t>
+  </si>
+  <si>
+    <t>Собственное пояснение</t>
+  </si>
+  <si>
+    <t>В Java принято распределять код по слоям и уровням, преследуя цель не воплотить какой-либо калсс в божественный.
+В JavaScript этой кноцепции обращают меньше внимания. Однако в целом можно отметить, что любой js файл может включать в себя один определенный класс (даже если он не обозначен явно), а также строгое количество глобальных переменных. Те переменные, которые не относятся к данному конкретному классу (js файлу), передаются в функции этого класса исключительно через аргументы.</t>
+  </si>
+  <si>
+    <t>Пример 1</t>
+  </si>
+  <si>
+    <t>Пример 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Замыкания похожи на процесс создания классов, а точнее реализацию конструкторов классов с передачей в конструкторы определенных параметров, которые затем будут доступны остальных функциям данного класаа. Отличие в том, что вместо класса реализуется </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>внeшняя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функция, которая обязательно должна вернуть либо объект, содержащий все ссылки на ее функции в виде callbacks (см пример слева), либо один callback (см пример ниже)</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function createPasswordChecker (minLengthPassword) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (password) =&gt; password.length &gt;= minLengthPassword;
+}
+const isPasswordValid = createPasswordChecker(8);
+// console.log(isPasswordValid('password')); // true
+// console.log(isPasswordValid('secret')); // false
+console.log(createPasswordChecker(8)('passworawdawdd'));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function createCalculator(initialValue) {
+    const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = initialValue;
+    function add(argument) {
+        return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> += argument;
+    }
+    function subtract(argument) {
+        return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -= argument;
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { add, subtract };
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+const calc = createCalculator(45);
+console.log(calc.add(32));
+console.log(calc.subtract(10));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function createGreeting(userName) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> () =&gt; `Hello, ${userName}`;
+}
+const greeting = createGreeting('John');
+console.log(greeting());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно - условие 1 ! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Замыкание переменной происходит только при одном условии. Если внутри </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>одной функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, реализуются </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>дополнительные функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. А также если </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>внешняя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функция присваивается отдельной переменной, а далее работа с этой новой переменной происходит через обращения к ее </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>внутренним</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функциям.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно - условие 2 !</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Замыкание переменной может происходить только во </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>внешних</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функциях отнсительно тех </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>внутренних</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функций, в которых происходит работа с этой переменной.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно - условие 3 ! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Любая внешняя функция должна вернуть объект, содержащий ее </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>внутренние</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> функции, работающие с замкнутыми переменными.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Зачем нужны замыкания! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Так как область видимости  функции ограничена ее областью реализации, то иногда необходимо получить глобальный доступ к промежуточным ее переменным (в return можно передать только одно значение или массив). Для получения доступа к дополнительным значениям в этой функции используется замыкание</t>
+    </r>
+  </si>
+  <si>
+    <t>Замыкания (=== получение глобального доступа к значения внутри функций === конструкторы классов)</t>
+  </si>
+  <si>
+    <t>00:38:00</t>
+  </si>
+  <si>
+    <t>Лекция 1 часть 1</t>
+  </si>
+  <si>
+    <t>Лекция 1 часть 2</t>
+  </si>
+  <si>
+    <t>00:29:00</t>
+  </si>
+  <si>
+    <t>Лекция 1 часть 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let i = 0;
+const houses = [];
+while (i &lt; 10) {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> let myItem = 2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    let house = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> () {
+        console.log(i); //добавляем переменную (ссылку на объект)
+    }
+    houses.push(house);
+    i++;
+}
+houses[0](); //10
+houses[7](); //10
+console.log(myItem); //Error</t>
+    </r>
+  </si>
+  <si>
+    <t>let i = 0;
+const houses = [];
+while (i &lt; 10) {
+    let myItem = i;
+    let house = function () {
+        console.log(myItem);
+    }
+    houses.push(house);
+    i++;
+}
+houses[0](); //0
+houses[7](); //7
+console.log(myItem); //Error</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let i = 0;
+let myItem = i;
+let house = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> () {
+    console.log(myItem); //добавляем переменную (ссылку на объект)
+}
+i = 10;
+house(); //0
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let i = 0;
+let house = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> () {
+    console.log(i); //добавляем переменную (ссылку на объект)
+}
+i = 10;
+house(); //10
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Упрощенный для понимания вариант</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JAVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Runnable mi1 = printX();
+mi1.run();
+public Runnable printX(){
+x = 1;
+Runnable runnable = () -&gt; System.out.println(x);
+x = 7;
+return runnable;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Цикл while имеет свой стэк вызова после каждой итерации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Для захвата переменно, необходимо соблюсти следующие условия:
+1 Реализовать функцию с переменной из глобальной области видимости, которая будет принимать новые значения после декларации реализованной функции
+2 Чтобы избежать захвата переменной, нужно изменяемую переменную присвоить другой переменной, которая получает значений до декларации нашей функции.</t>
+    </r>
+  </si>
+  <si>
+    <t>Захват переменной</t>
+  </si>
+  <si>
+    <t>Вариант 1 - Захват</t>
+  </si>
+  <si>
+    <t>Вариант 2 - избежание захвата</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15222,8 +18198,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15276,6 +18278,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -15450,10 +18488,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -15471,149 +18509,185 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15622,25 +18696,52 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -15652,10 +18753,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16029,13 +19163,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>581346</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>14346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2181411</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>454264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16071,13 +19205,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>92362</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3873498</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>997857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16113,13 +19247,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>796635</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>69271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2690091</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>716643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16155,13 +19289,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>446809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4167906</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>1209951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16197,13 +19331,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>507998</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>88898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>1326893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16323,13 +19457,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>399144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2630713</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1313808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16365,13 +19499,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>81641</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>281215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3592285</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>2333331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16407,13 +19541,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>217713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3794769</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>1957702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16449,13 +19583,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2457724</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>246530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3662281</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>1155850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16491,13 +19625,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>62036</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3810368</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>1320912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16531,12 +19665,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19796</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>40665</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1621117</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>274278</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1924977" cy="965357"/>
+    <xdr:ext cx="1444243" cy="724274"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1776948951" name="Рисунок 1776948950">
@@ -16556,8 +19690,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2850082" y="187861104"/>
-          <a:ext cx="1924977" cy="965357"/>
+          <a:off x="13095941" y="194061337"/>
+          <a:ext cx="1444243" cy="724274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16570,7 +19704,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63805</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4104101" cy="889796"/>
@@ -16694,16 +19828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>87160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1333727</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1771963</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>918107</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1174751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16724,8 +19858,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6159500" y="5059210"/>
-          <a:ext cx="1219427" cy="1684804"/>
+          <a:off x="11125201" y="9999511"/>
+          <a:ext cx="810156" cy="1119340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17292,10 +20426,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -17635,10 +20769,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V277"/>
+  <dimension ref="A2:V316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17882,160 +21016,146 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="95" t="s">
+        <v>726</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="C18" s="94" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+    <row r="21" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+    <row r="22" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D23" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C26" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="C26" s="8" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="C28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>121</v>
@@ -18044,2462 +21164,2795 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D31" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="29"/>
-      <c r="B32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="8" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="33"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="8" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>135</v>
-      </c>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
       <c r="B38" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
+      <c r="B41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="20"/>
-      <c r="B41" s="8" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D43" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="34"/>
-      <c r="B42" s="30" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="34"/>
+      <c r="B44" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C44" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D44" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B46" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="35" t="s">
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D49" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="20"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="31" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="20"/>
+      <c r="D50" s="22"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="20"/>
-      <c r="B50" s="8" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="20"/>
+      <c r="B52" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="22"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="33"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="20"/>
-      <c r="C52" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="20"/>
-      <c r="C53" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>155</v>
-      </c>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="C54" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
-      <c r="B55" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="C55" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="34"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30" t="s">
+      <c r="A56" s="20"/>
+      <c r="C56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="20"/>
+      <c r="B57" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="34"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D58" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="31" t="s">
+    <row r="59" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17" t="s">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A58" s="20" t="s">
+      <c r="D59" s="18"/>
+    </row>
+    <row r="60" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A60" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D60" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="20" t="s">
+    <row r="61" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A60" s="34" t="s">
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A62" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="31" t="s">
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17" t="s">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+    <row r="64" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D64" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A63" s="29" t="s">
+    <row r="65" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A65" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A64" s="20" t="s">
+      <c r="D65" s="33"/>
+    </row>
+    <row r="66" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="36" t="s">
+      <c r="D66" s="22"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="38"/>
-    </row>
-    <row r="66" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="39" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="38"/>
+    </row>
+    <row r="68" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D68" s="40" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="39" t="s">
+    <row r="69" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D69" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="41" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="43"/>
-    </row>
-    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
-      <c r="B69" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A70" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="44"/>
       <c r="B71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A72" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="44"/>
+      <c r="B73" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="40"/>
-    </row>
-    <row r="72" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="44"/>
-      <c r="C72" s="8" t="s">
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="44"/>
+      <c r="C74" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D74" s="40" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46" t="s">
+    <row r="75" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="45"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="D73" s="47" t="s">
+      <c r="D75" s="47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="48" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="40"/>
-    </row>
-    <row r="75" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A75" s="44"/>
-      <c r="B75" s="8" t="s">
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A77" s="44"/>
+      <c r="B77" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D77" s="40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="C76" s="8" t="s">
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="44"/>
+      <c r="C78" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D76" s="40"/>
-    </row>
-    <row r="77" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="C77" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="40"/>
-    </row>
-    <row r="78" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="44"/>
       <c r="C79" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A81" s="44"/>
+      <c r="C81" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="40"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="36" t="s">
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="43"/>
-    </row>
-    <row r="81" spans="1:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
+    </row>
+    <row r="83" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="A83" s="44"/>
+      <c r="B83" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="40" t="s">
+      <c r="D83" s="40" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="45"/>
-      <c r="B82" s="46" t="s">
+    <row r="84" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="45"/>
+      <c r="B84" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C82" s="46" t="s">
+      <c r="C84" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D84" s="47" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="36" t="s">
+    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42" t="s">
+      <c r="B85" s="42"/>
+      <c r="C85" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D83" s="38"/>
-    </row>
-    <row r="84" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A84" s="44"/>
-      <c r="B84" s="8" t="s">
+      <c r="D85" s="38"/>
+    </row>
+    <row r="86" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A86" s="44"/>
+      <c r="B86" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D86" s="40" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A85" s="44" t="s">
+    <row r="87" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A87" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D87" s="40" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="49" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="49" t="s">
+      <c r="B88" s="99" t="s">
+        <v>728</v>
+      </c>
+      <c r="C88" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A88" s="50" t="s">
+    <row r="90" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A90" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B90" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
-    </row>
-    <row r="89" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="45" t="s">
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+    </row>
+    <row r="91" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B91" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C91" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D89" s="53"/>
-    </row>
-    <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="44"/>
-      <c r="B90" s="8" t="s">
+      <c r="D91" s="53"/>
+    </row>
+    <row r="92" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="44"/>
+      <c r="B92" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="D90" s="40"/>
-    </row>
-    <row r="91" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="44"/>
-      <c r="B91" s="8" t="s">
+      <c r="D92" s="40"/>
+    </row>
+    <row r="93" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="44"/>
+      <c r="B93" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D93" s="40" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A92" s="44"/>
-      <c r="C92" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" s="40"/>
-    </row>
-    <row r="93" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D93" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="44"/>
       <c r="C94" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A96" s="44"/>
+      <c r="C96" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D94" s="40"/>
-    </row>
-    <row r="95" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="45" t="s">
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B97" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="C95" s="46" t="s">
+      <c r="C97" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D97" s="47" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="36" t="s">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="43"/>
-    </row>
-    <row r="97" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="44"/>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="44"/>
+      <c r="B99" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D99" s="40" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="44" t="s">
+    <row r="100" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="40"/>
-    </row>
-    <row r="99" spans="1:22" ht="261" x14ac:dyDescent="0.35">
-      <c r="A99" s="45" t="s">
+      <c r="D100" s="40"/>
+    </row>
+    <row r="101" spans="1:22" ht="261" x14ac:dyDescent="0.35">
+      <c r="A101" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B101" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C101" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="D99" s="47"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A100" s="54" t="s">
+      <c r="D101" s="47"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A102" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A103" s="8"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="U104" s="14"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="14"/>
+      <c r="R106" s="14"/>
+      <c r="S106" s="14"/>
+      <c r="U106" s="14"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A107" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="C107" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="P105" s="9"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="8"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A106" s="54" t="s">
+      <c r="P107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="8"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A108" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
+    <row r="109" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A109" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B109" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A108" s="8" t="s">
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A110" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A111" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A110" s="55" t="s">
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A112" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B112" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A111" s="8"/>
-      <c r="C111" s="8" t="s">
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
+      <c r="C113" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A112" s="8"/>
-      <c r="C112" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="54" t="s">
-        <v>284</v>
-      </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="C114" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D114" s="8"/>
     </row>
-    <row r="115" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A115" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>287</v>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="54" t="s">
+        <v>284</v>
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="C116" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A117" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
+      <c r="C118" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D116" s="8"/>
-    </row>
-    <row r="117" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="54" t="s">
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B119" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D118" s="8"/>
-    </row>
-    <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B121" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8" t="s">
+    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D120" s="8"/>
-    </row>
-    <row r="121" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="54" t="s">
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B123" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D121" s="8"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="54" t="s">
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="54" t="s">
         <v>302</v>
-      </c>
-      <c r="D122" s="8"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="D124" s="8"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D125" s="8"/>
+        <v>305</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="54" t="s">
-        <v>310</v>
+      <c r="A126" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>315</v>
+      <c r="A128" s="54" t="s">
+        <v>310</v>
       </c>
       <c r="D128" s="8"/>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A131" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A132" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D130" s="8"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A131" s="8"/>
-      <c r="D131" s="8"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A132" s="13"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
-      <c r="R132" s="14"/>
-      <c r="S132" s="14"/>
-      <c r="U132" s="14"/>
+      <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8"/>
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
+      <c r="U134" s="14"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A135" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C133" s="55" t="s">
+      <c r="C135" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="P133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="8"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A134" s="54" t="s">
+      <c r="P135" s="9"/>
+      <c r="U135" s="9"/>
+      <c r="V135" s="8"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A136" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="8" t="s">
+    <row r="137" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B137" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D135" s="8"/>
-    </row>
-    <row r="136" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A136" s="55" t="s">
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A138" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B138" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D138" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8" t="s">
+    <row r="139" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8" t="s">
+    <row r="140" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C139" s="8" t="s">
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C141" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A140" s="56" t="s">
+    <row r="142" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A142" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B142" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A141" s="42" t="s">
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A143" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B143" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C141" s="42" t="s">
+      <c r="C143" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A142" s="8" t="s">
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C144" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A143" s="8" t="s">
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A144" s="46" t="s">
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+      <c r="A146" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46" t="s">
+      <c r="B146" s="46"/>
+      <c r="C146" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="D144" s="22"/>
-    </row>
-    <row r="145" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="8" t="s">
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="8" t="s">
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A147" s="66" t="s">
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A149" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D147" s="8"/>
-    </row>
-    <row r="148" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A148" s="8" t="s">
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A150" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C150" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="8" t="s">
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:21" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B151" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="42" t="s">
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="B150" s="42"/>
-      <c r="C150" s="42" t="s">
+      <c r="B152" s="42"/>
+      <c r="C152" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="D150" s="8"/>
-    </row>
-    <row r="151" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="46" t="s">
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="B151" s="46"/>
-      <c r="C151" s="46" t="s">
+      <c r="B153" s="46"/>
+      <c r="C153" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="D151" s="8"/>
-    </row>
-    <row r="152" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="8" t="s">
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C154" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A153" s="54" t="s">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A155" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A154" s="8" t="s">
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:21" ht="145" x14ac:dyDescent="0.35">
+      <c r="A156" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B156" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D156" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A155" s="9" t="s">
+    <row r="157" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+      <c r="A157" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B157" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C157" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="8" t="s">
+    <row r="159" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B159" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C159" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A158" s="13"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="13"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
-      <c r="P158" s="14"/>
-      <c r="Q158" s="14"/>
-      <c r="R158" s="14"/>
-      <c r="S158" s="14"/>
-      <c r="U158" s="14"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A159" s="9" t="s">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="P160" s="14"/>
+      <c r="Q160" s="14"/>
+      <c r="R160" s="14"/>
+      <c r="S160" s="14"/>
+      <c r="U160" s="14"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A161" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C159" s="55" t="s">
+      <c r="C161" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="P159" s="9"/>
-      <c r="U159" s="9"/>
-      <c r="V159" s="8"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
+      <c r="P161" s="9"/>
+      <c r="U161" s="9"/>
+      <c r="V161" s="8"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D162" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="87" x14ac:dyDescent="0.35">
-      <c r="A161" s="9" t="s">
+    <row r="163" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A163" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B163" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C163" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B162" s="8" t="s">
+    <row r="164" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B164" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C164" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="116" x14ac:dyDescent="0.35">
-      <c r="B163" s="8" t="s">
+    <row r="165" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B165" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C165" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="116" x14ac:dyDescent="0.35">
-      <c r="C164" s="8" t="s">
+    <row r="166" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C166" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D166" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="C165" s="8" t="s">
+    <row r="167" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C167" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="9" t="s">
+    <row r="168" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C168" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="8" t="s">
+    <row r="169" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B167" s="57"/>
-      <c r="C167" s="8" t="s">
+      <c r="B169" s="57"/>
+      <c r="C169" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A168" s="54" t="s">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A170" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="B168" s="57"/>
-    </row>
-    <row r="169" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A169" s="8"/>
-      <c r="B169" s="8" t="s">
+      <c r="B170" s="57"/>
+    </row>
+    <row r="171" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C171" s="69" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A170" s="54" t="s">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A172" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D172" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="8" t="s">
+    <row r="173" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C173" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="116" x14ac:dyDescent="0.35">
-      <c r="A172" s="9" t="s">
+    <row r="174" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A174" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B174" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C174" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D174" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="116" x14ac:dyDescent="0.35">
-      <c r="A174" s="8" t="s">
+    <row r="176" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A176" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B176" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C176" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A176" s="13"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="13"/>
-      <c r="K176" s="13"/>
-      <c r="L176" s="13"/>
-      <c r="M176" s="13"/>
-      <c r="N176" s="13"/>
-      <c r="P176" s="14"/>
-      <c r="Q176" s="14"/>
-      <c r="R176" s="14"/>
-      <c r="S176" s="14"/>
-      <c r="U176" s="14"/>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A177" s="9" t="s">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="13"/>
+      <c r="M178" s="13"/>
+      <c r="N178" s="13"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="14"/>
+      <c r="S178" s="14"/>
+      <c r="U178" s="14"/>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A179" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C177" s="55" t="s">
+      <c r="C179" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D179" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="P177" s="9"/>
-      <c r="U177" s="9"/>
-      <c r="V177" s="8"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C178" s="8" t="s">
+      <c r="P179" s="9"/>
+      <c r="U179" s="9"/>
+      <c r="V179" s="8"/>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C180" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A179" s="7" t="s">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="B180" s="8" t="s">
+    <row r="182" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B182" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C182" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="C181" s="8" t="s">
+    <row r="183" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C183" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D183" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="8" t="s">
+    <row r="184" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B184" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C184" s="8" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B184" s="8" t="s">
+    <row r="186" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B186" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C186" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D186" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B185" s="8" t="s">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B187" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C187" s="8" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="C186" s="58" t="s">
+      <c r="C188" s="58" t="s">
         <v>423</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D188" s="9" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="B187" s="8" t="s">
+    <row r="189" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B189" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C189" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B188" s="8" t="s">
+    <row r="190" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B190" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C190" s="8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B189" s="8" t="s">
+    <row r="191" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B191" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C191" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D191" s="8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
+    <row r="192" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B192" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C192" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D192" s="8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C191" s="58" t="s">
+      <c r="C193" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D193" s="9" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
+    <row r="194" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B194" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C194" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="8" t="s">
+    <row r="195" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B195" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C195" s="87" t="s">
         <v>444</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D195" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B194" s="8" t="s">
+    <row r="196" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B196" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C196" s="8" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="7" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D197" s="9" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
+    <row r="198" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="81" t="s">
+        <v>694</v>
+      </c>
+      <c r="B198" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C196" s="8" t="s">
+      <c r="C198" s="81" t="s">
+        <v>692</v>
+      </c>
+      <c r="D198" s="81" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A199" s="81" t="s">
+        <v>695</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D196" s="9" t="s">
+    </row>
+    <row r="200" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A200" s="8"/>
+      <c r="C200" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="8" t="s">
+    <row r="201" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="81" t="s">
+        <v>696</v>
+      </c>
+      <c r="B201" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C201" s="8" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A198" s="8"/>
-      <c r="C198" s="8" t="s">
+    <row r="202" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A202" s="8" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="8" t="s">
+      <c r="B202" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="C202" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C199" s="8" t="s">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="54" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A200" s="8" t="s">
+    <row r="204" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A204" s="8"/>
+      <c r="C204" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B200" s="8" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C200" s="8" t="s">
+    </row>
+    <row r="206" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B206" s="8" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="54" t="s">
+      <c r="C206" s="8" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A202" s="8"/>
-      <c r="C202" s="8" t="s">
+      <c r="D206" s="8" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="7" t="s">
+    <row r="207" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A207" s="8" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B204" s="8" t="s">
+      <c r="B207" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C207" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D207" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="D204" s="8" t="s">
+    </row>
+    <row r="208" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+      <c r="B208" s="8" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="174" x14ac:dyDescent="0.35">
-      <c r="A205" s="8" t="s">
+      <c r="C208" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D208" s="81" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="D209" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="B205" s="8" t="s">
+    </row>
+    <row r="210" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A210" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D205" s="8" t="s">
+      <c r="B210" s="8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="290" x14ac:dyDescent="0.35">
-      <c r="B206" s="8" t="s">
+      <c r="C210" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D210" s="81" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D206" s="8" t="s">
+      <c r="B211" s="8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="D207" s="8" t="s">
+      <c r="C211" s="8" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="9" t="s">
+      <c r="D211" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="B208" s="8" t="s">
+    </row>
+    <row r="212" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A212" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D208" s="8" t="s">
+      <c r="B212" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="8" t="s">
+      <c r="C212" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="D212" s="8"/>
+    </row>
+    <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A213" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="B213" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D213" s="8"/>
+    </row>
+    <row r="214" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A214" s="8" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A210" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="C214" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="D214" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D210" s="8"/>
-    </row>
-    <row r="211" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="54" t="s">
+    </row>
+    <row r="215" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="D215" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D211" s="8"/>
-    </row>
-    <row r="212" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="8" t="s">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="D216" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C212" s="8" t="s">
+    </row>
+    <row r="217" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B217" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="C217" s="8" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B215" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="5"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="5"/>
-    </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="A219" s="1"/>
       <c r="B219" s="2"/>
-      <c r="C219" s="59" t="s">
-        <v>498</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>502</v>
-      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="5"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="5"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2" t="s">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="B226" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="1" t="s">
+    </row>
+    <row r="227" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="10" t="s">
+      <c r="B227" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="49" t="s">
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A224" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D228" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A225" s="2" t="s">
+    <row r="229" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B226" s="2" t="s">
+    </row>
+    <row r="230" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="10" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
+      <c r="B232" s="2"/>
+      <c r="C232" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="C233" s="8" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
+      <c r="D233" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="69" t="s">
-        <v>665</v>
-      </c>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="49" t="s">
-        <v>525</v>
-      </c>
-      <c r="D230" s="1"/>
-    </row>
-    <row r="231" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A231" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D232" s="1"/>
-    </row>
-    <row r="233" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>534</v>
-      </c>
+    </row>
+    <row r="234" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B235" s="60" t="s">
-        <v>538</v>
+        <v>524</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="10" t="s">
-        <v>231</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="D236" s="1"/>
-    </row>
-    <row r="237" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A237" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>234</v>
+      <c r="C236" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B237" s="60" t="s">
+        <v>532</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>236</v>
+        <v>533</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="10" t="s">
-        <v>541</v>
+        <v>231</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
+      <c r="C238" s="49" t="s">
+        <v>232</v>
+      </c>
       <c r="D238" s="1"/>
     </row>
     <row r="239" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B239" s="82" t="s">
+        <v>699</v>
+      </c>
+      <c r="C239" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B239" s="2" t="s">
+    </row>
+    <row r="243" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A243" s="49" t="s">
         <v>543</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D239" s="1" t="s">
+    </row>
+    <row r="244" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="1"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B240" s="2" t="s">
+      <c r="D244" s="1"/>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+      <c r="K246" s="13"/>
+      <c r="L246" s="13"/>
+      <c r="M246" s="13"/>
+      <c r="N246" s="13"/>
+      <c r="P246" s="14"/>
+      <c r="Q246" s="14"/>
+      <c r="R246" s="14"/>
+      <c r="S246" s="14"/>
+      <c r="U246" s="14"/>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A247" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C247" s="83" t="s">
+        <v>700</v>
+      </c>
+      <c r="D247" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="P247" s="9"/>
+      <c r="U247" s="9"/>
+      <c r="V247" s="8"/>
+    </row>
+    <row r="248" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B248" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="C248" s="8" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="49" t="s">
+    <row r="249" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="1" t="s">
+      <c r="B249" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A242" s="1"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2" t="s">
+      <c r="C249" s="69" t="s">
         <v>551</v>
       </c>
-      <c r="D242" s="1"/>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A244" s="13"/>
-      <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="13"/>
-      <c r="F244" s="13"/>
-      <c r="G244" s="14"/>
-      <c r="H244" s="13"/>
-      <c r="I244" s="13"/>
-      <c r="K244" s="13"/>
-      <c r="L244" s="13"/>
-      <c r="M244" s="13"/>
-      <c r="N244" s="13"/>
-      <c r="P244" s="14"/>
-      <c r="Q244" s="14"/>
-      <c r="R244" s="14"/>
-      <c r="S244" s="14"/>
-      <c r="U244" s="14"/>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A245" s="9" t="s">
+      <c r="D249" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="C245" s="55" t="s">
+    </row>
+    <row r="250" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A250" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="B250" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A251" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A252" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A253" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="C254" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C255" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B256" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B257" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="13"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+      <c r="K259" s="13"/>
+      <c r="L259" s="13"/>
+      <c r="M259" s="13"/>
+      <c r="N259" s="13"/>
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+      <c r="R259" s="14"/>
+      <c r="S259" s="14"/>
+      <c r="U259" s="14"/>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A260" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C260" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="D260" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="P245" s="9"/>
-      <c r="U245" s="9"/>
-      <c r="V245" s="8"/>
-    </row>
-    <row r="246" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B246" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="247" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="D247" s="9" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="248" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A248" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="249" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="D249" s="9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A250" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A251" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="C252" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="253" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C253" s="8" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B254" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C254" s="8" t="s">
+      <c r="P260" s="9"/>
+      <c r="U260" s="9"/>
+      <c r="V260" s="8"/>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A261" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D261" s="9" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B255" s="8" t="s">
+    <row r="262" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="B262" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="C262" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="D262" s="8" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A257" s="13"/>
-      <c r="B257" s="14"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="13"/>
-      <c r="F257" s="13"/>
-      <c r="G257" s="14"/>
-      <c r="H257" s="13"/>
-      <c r="I257" s="13"/>
-      <c r="K257" s="13"/>
-      <c r="L257" s="13"/>
-      <c r="M257" s="13"/>
-      <c r="N257" s="13"/>
-      <c r="P257" s="14"/>
-      <c r="Q257" s="14"/>
-      <c r="R257" s="14"/>
-      <c r="S257" s="14"/>
-      <c r="U257" s="14"/>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A258" s="9" t="s">
+    <row r="263" spans="1:22" ht="261" x14ac:dyDescent="0.35">
+      <c r="B263" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C258" s="55" t="s">
+      <c r="C263" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="D258" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="P258" s="9"/>
-      <c r="U258" s="9"/>
-      <c r="V258" s="8"/>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A259" s="7" t="s">
+    </row>
+    <row r="264" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B264" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D259" s="9" t="s">
+      <c r="C264" s="21" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="260" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="B260" s="61" t="s">
+    <row r="265" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C265" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="261" spans="1:22" ht="261" x14ac:dyDescent="0.35">
-      <c r="B261" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="262" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B262" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C262" s="21" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="263" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C263" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A264" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B265" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B267" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A268" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A269" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B270" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C270" s="61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A271" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="D266" s="9" t="s">
+    </row>
+    <row r="272" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+      <c r="C272" s="69" t="s">
         <v>593</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A267" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B268" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C268" s="61" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A269" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22" ht="290" x14ac:dyDescent="0.35">
-      <c r="C270" s="8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="271" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B271" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="D271" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A272" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="273" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="B273" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>607</v>
+        <v>594</v>
+      </c>
+      <c r="C273" s="69" t="s">
+        <v>595</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="274" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A274" s="8" t="s">
+        <v>596</v>
+      </c>
       <c r="B274" s="8" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A276" s="13"/>
-      <c r="B276" s="14"/>
-      <c r="C276" s="14"/>
-      <c r="D276" s="13"/>
-      <c r="F276" s="13"/>
-      <c r="G276" s="14"/>
-      <c r="H276" s="13"/>
-      <c r="I276" s="13"/>
-      <c r="K276" s="13"/>
-      <c r="L276" s="13"/>
-      <c r="M276" s="13"/>
-      <c r="N276" s="13"/>
-      <c r="P276" s="14"/>
-      <c r="Q276" s="14"/>
-      <c r="R276" s="14"/>
-      <c r="S276" s="14"/>
-      <c r="U276" s="14"/>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A277" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="C277" s="55"/>
-      <c r="D277" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="P277" s="9"/>
-      <c r="U277" s="9"/>
-      <c r="V277" s="8"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B275" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B276" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A278" s="13"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="13"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="13"/>
+      <c r="I278" s="13"/>
+      <c r="K278" s="13"/>
+      <c r="L278" s="13"/>
+      <c r="M278" s="13"/>
+      <c r="N278" s="13"/>
+      <c r="P278" s="14"/>
+      <c r="Q278" s="14"/>
+      <c r="R278" s="14"/>
+      <c r="S278" s="14"/>
+      <c r="U278" s="14"/>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A279" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="C279" s="68" t="s">
+        <v>656</v>
+      </c>
+      <c r="P279" s="9"/>
+      <c r="U279" s="9"/>
+      <c r="V279" s="8"/>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A280" s="93" t="s">
+        <v>724</v>
+      </c>
+      <c r="B280" s="93" t="s">
+        <v>707</v>
+      </c>
+      <c r="C280" s="96"/>
+      <c r="D280" s="75"/>
+    </row>
+    <row r="281" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="94"/>
+      <c r="B281" s="94" t="s">
+        <v>725</v>
+      </c>
+      <c r="C281" s="69" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B282" s="97" t="s">
+        <v>658</v>
+      </c>
+      <c r="C282" s="97" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="A283" s="69" t="s">
+        <v>662</v>
+      </c>
+      <c r="B283" s="69" t="s">
+        <v>659</v>
+      </c>
+      <c r="C283" s="69" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A284" s="93" t="s">
+        <v>723</v>
+      </c>
+      <c r="B284" s="93" t="s">
+        <v>708</v>
+      </c>
+      <c r="C284" s="96"/>
+      <c r="D284" s="75"/>
+    </row>
+    <row r="285" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A285" s="94" t="s">
+        <v>706</v>
+      </c>
+      <c r="C285" s="94" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A286" s="95" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B287" s="94" t="s">
+        <v>712</v>
+      </c>
+      <c r="C287" s="94" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A288" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="B288" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="C288" s="98" t="s">
+        <v>716</v>
+      </c>
+      <c r="D288" s="98" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B289" s="94" t="s">
+        <v>713</v>
+      </c>
+      <c r="C289" s="94" t="s">
+        <v>714</v>
+      </c>
+      <c r="D289" s="94" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C290" s="94" t="s">
+        <v>720</v>
+      </c>
+      <c r="D290" s="94" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="D291" s="94" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A296" s="89" t="s">
+        <v>701</v>
+      </c>
+      <c r="B296" s="90"/>
+      <c r="C296" s="90"/>
+      <c r="D296" s="90"/>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A297" s="13"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="13"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="K297" s="13"/>
+      <c r="L297" s="13"/>
+      <c r="M297" s="13"/>
+      <c r="N297" s="13"/>
+      <c r="P297" s="14"/>
+      <c r="Q297" s="14"/>
+      <c r="R297" s="14"/>
+      <c r="S297" s="14"/>
+      <c r="U297" s="14"/>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A298" s="92" t="s">
+        <v>744</v>
+      </c>
+      <c r="C298" s="100" t="s">
+        <v>729</v>
+      </c>
+      <c r="D298" s="92" t="s">
+        <v>746</v>
+      </c>
+      <c r="P298" s="9"/>
+      <c r="U298" s="9"/>
+      <c r="V298" s="8"/>
+    </row>
+    <row r="299" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C299" s="94" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A300" s="92" t="s">
+        <v>731</v>
+      </c>
+      <c r="B300" s="101"/>
+      <c r="C300" s="84"/>
+    </row>
+    <row r="301" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C301" s="94" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A303" s="13"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="13"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="13"/>
+      <c r="I303" s="13"/>
+      <c r="K303" s="13"/>
+      <c r="L303" s="13"/>
+      <c r="M303" s="13"/>
+      <c r="N303" s="13"/>
+      <c r="P303" s="14"/>
+      <c r="Q303" s="14"/>
+      <c r="R303" s="14"/>
+      <c r="S303" s="14"/>
+      <c r="U303" s="14"/>
+    </row>
+    <row r="304" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A304" s="92" t="s">
+        <v>745</v>
+      </c>
+      <c r="C304" s="100" t="s">
+        <v>742</v>
+      </c>
+      <c r="D304" s="92" t="s">
+        <v>743</v>
+      </c>
+      <c r="P304" s="9"/>
+      <c r="U304" s="9"/>
+      <c r="V304" s="8"/>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A305" s="95" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="B306" s="94" t="s">
+        <v>740</v>
+      </c>
+      <c r="C306" s="94" t="s">
+        <v>738</v>
+      </c>
+      <c r="D306" s="94" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A307" s="95" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B308" s="94" t="s">
+        <v>741</v>
+      </c>
+      <c r="C308" s="94" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A309" s="95" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C310" s="94" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A312" s="13"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="13"/>
+      <c r="I312" s="13"/>
+      <c r="K312" s="13"/>
+      <c r="L312" s="13"/>
+      <c r="M312" s="13"/>
+      <c r="N312" s="13"/>
+      <c r="P312" s="14"/>
+      <c r="Q312" s="14"/>
+      <c r="R312" s="14"/>
+      <c r="S312" s="14"/>
+      <c r="U312" s="14"/>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A313" s="92" t="s">
+        <v>747</v>
+      </c>
+      <c r="C313" s="100" t="s">
+        <v>755</v>
+      </c>
+      <c r="D313" s="92" t="s">
+        <v>743</v>
+      </c>
+      <c r="P313" s="9"/>
+      <c r="U313" s="9"/>
+      <c r="V313" s="8"/>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C314" s="98" t="s">
+        <v>756</v>
+      </c>
+      <c r="D314" s="98" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B315" s="94" t="s">
+        <v>754</v>
+      </c>
+      <c r="C315" s="94" t="s">
+        <v>748</v>
+      </c>
+      <c r="D315" s="94" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="94" t="s">
+        <v>753</v>
+      </c>
+      <c r="B316" s="94" t="s">
+        <v>752</v>
+      </c>
+      <c r="C316" s="94" t="s">
+        <v>751</v>
+      </c>
+      <c r="D316" s="94" t="s">
+        <v>750</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A296:D296"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
@@ -20510,15 +23963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC949A2C-8805-4677-BB82-ADF85A1D6AB6}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20553,10 +24005,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -20578,30 +24030,330 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>613</v>
-      </c>
+      <c r="A3" s="70" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="78" t="s">
+        <v>691</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="71" t="s">
+        <v>664</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="69" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="71" t="s">
+        <v>671</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="75"/>
+    </row>
+    <row r="9" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>688</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>675</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>673</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>672</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="70" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>678</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="69" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>679</v>
+      </c>
+      <c r="D13" s="69"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="77" t="s">
+        <v>683</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+    </row>
+    <row r="15" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="69" t="s">
+        <v>689</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>684</v>
+      </c>
+      <c r="D15" s="69"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>680</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>685</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="69"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69" t="s">
+        <v>686</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="73" t="s">
+        <v>666</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="4"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>617</v>
+        <v>609</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>705</v>
       </c>
       <c r="P5" s="1"/>
       <c r="U5" s="1"/>
@@ -20609,13 +24361,13 @@
     </row>
     <row r="6" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>664</v>
+        <v>610</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>703</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
@@ -20623,10 +24375,10 @@
     </row>
     <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="P7" s="1"/>
       <c r="U7" s="1"/>
@@ -20634,11 +24386,11 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="86"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
@@ -20657,133 +24409,134 @@
     </row>
     <row r="9" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>626</v>
+        <v>618</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>702</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>629</v>
-      </c>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B13" s="85"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -20796,7 +24549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0A15B1-5824-4C4F-9BED-D51D56A8695F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -20869,7 +24622,7 @@
     </row>
     <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>234</v>
@@ -20883,7 +24636,7 @@
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="64" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>234</v>
@@ -20892,7 +24645,7 @@
     </row>
     <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="64" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>234</v>
@@ -20907,62 +24660,62 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="64" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C12" s="63" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="64" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="64" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="64" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="64" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -20972,7 +24725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -21015,12 +24768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>

--- a/Самообучение_#_$$_JavaScript_Back.xlsx
+++ b/Самообучение_#_$$_JavaScript_Back.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844252C-C0CC-4C7B-AAE3-386306A0C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E556C7-D6A9-4748-B221-35FA0C7EF834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="862">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -838,10 +838,6 @@
     </r>
   </si>
   <si>
-    <t>"use strict";
-пишется в начале кода. Отключает оберточную доработку кода со стороны js, дабы js не исправлял ошибки в части синтаксиса на этапе компиляции, чтобы не наделать ошибок в Runtime</t>
-  </si>
-  <si>
     <t>Ресурсы</t>
   </si>
   <si>
@@ -14121,9 +14117,6 @@
   </si>
   <si>
     <t>Лекция 2 часть 1</t>
-  </si>
-  <si>
-    <t>Основы ООП (объектно-ориентированного программирования)</t>
   </si>
   <si>
     <t>this</t>
@@ -15993,9 +15986,6 @@
     </r>
   </si>
   <si>
-    <t>Object как class</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -16745,12 +16735,66 @@
     </r>
   </si>
   <si>
-    <t>В Object ИСПОЛЬЗОВАТЬ только ОБЫЧНЫЕ декларативные функции</t>
-  </si>
-  <si>
-    <t>В Class ИСПОЛЬЗОВАТЬ только ОБЫЧНЫЕ декларативные функции</t>
-  </si>
-  <si>
+    <t>Семинар 2 - 00 43 00</t>
+  </si>
+  <si>
+    <t>Семинар 2 - 00 48 38</t>
+  </si>
+  <si>
+    <t>class Person {
+    name = 'John';
+    age = 25;
+    gender = 'male';
+    changeName = (newName) =&gt; {
+        this.name = newName;
+    }
+}
+const johnPerson = new Person(); //создается стрелочная функция для johnPerson
+const sashaPerson = new Person(); //создается стрелочная функция для sashaPerson</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Никогда не использовать arrow function в Class как class!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Всегда использовать обычные function!</t>
+    </r>
+  </si>
+  <si>
+    <t>В Class ИСПОЛЬЗОВАТЬ только function declaration</t>
+  </si>
+  <si>
+    <t>В Object ИСПОЛЬЗОВАТЬ только function declaration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В данном случае стрелочная функция будет создаваться каждый раз своя для каждого нового экземпляра класса Person (по принципу Object)
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -16761,6 +16805,120 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Обычная же функция (при реализации в классе) по умолчанию лежит в Prototype</t>
+    </r>
+  </si>
+  <si>
+    <t>Обычная функция по умолчанию лежит в Prototype</t>
+  </si>
+  <si>
+    <t>Модификаторы доступа в js</t>
+  </si>
+  <si>
+    <t>Семинар 2 - 00 51 00</t>
+  </si>
+  <si>
+    <t>class Person {
+    #name = 'John';
+    #age = 25;
+    #gender = 'male';
+    changeName = (newName) =&gt; {
+        this.#name = newName;
+    }
+}
+const johnPerson = new Person(); //создается стрелочная функция для johnPerson
+const sashaPerson = new Person(); //создается стрелочная функция для sashaPerson</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> # перед названием переменной позволяет указать данной переменной private модификатор. Теперь к данной переменной везде следует обращаться через #
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Других модификаторов доступа в js нет</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> как class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Class</t>
     </r>
     <r>
@@ -16772,23 +16930,575 @@
       </rPr>
       <t xml:space="preserve"> es5</t>
     </r>
-  </si>
-  <si>
-    <t>Семинар 2 - 00 43 00</t>
-  </si>
-  <si>
-    <t>00 47 00 !!! Продолжить</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> как класс</t>
+    </r>
+  </si>
+  <si>
+    <t>Лекция 2 часть 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основы ООП (объектно-ориентированного программирования)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Function expression </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>как class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основы ООП (объектно-ориентированного программирования)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es5 как класс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основы ООП (объектно-ориентированного программирования)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> как class</t>
+    </r>
+  </si>
+  <si>
+    <t>Лекция 2 часть 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"use strict";
+Простыми словами! Позволяет включить дополнительную проверку например:
+a = 5; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//по идее должна быть ошибка, так как такой переменной нет в скрипте, однако без use strict компилятор создаст ее в window объекте и согласится с ней.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+пишется в начале кода. Отключает оберточную доработку кода со стороны js, дабы js не исправлял ошибки в части синтаксиса на этапе компиляции, чтобы не наделать ошибок в Runtime</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 2 - 01 15 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Function - это тоже Object, у которого есть свои методы: call, apply, bind</t>
+    </r>
+  </si>
+  <si>
+    <t>Лекция 2 часть 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основы ООП (объектно-ориентированного программирования)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Исключения</t>
+    </r>
+  </si>
+  <si>
+    <t>throw new Error('Wrong amount');</t>
+  </si>
+  <si>
+    <t>Семинар 2 - 02 07 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Семинар 2 - 02 11 00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">arr[1]?.length </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- если элемента arr[1] нет, то исключения не будет</t>
+    </r>
+  </si>
+  <si>
+    <t>static свойство</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Person {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> legs = 4; //статическое свойство </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семинар 2 - 02 28 00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    name = 'John'; //свойство всех экземпляров </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Семинар 2 - 02 28 00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    age = 25;
+    gender = 'male';
+    changeName = (newName) =&gt; {
+        this.name = newName;
+        Person.legs;
+    }
+}
+const johnPerson = new Person(); //создается стрелочная функция для johnPerson
+const sashaPerson = new Person(); //создается стрелочная функция для sashaPerson</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможность привязки this в момент создания class с использованием обычной function declaration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Person {
+    name = 'John';
+    age = 25;
+    gender = 'male';
+    constructor (){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this.changeName = this.changeName.bind(this); //используем, чтобы привязать все методы класса к контексту - текущему объекту (this)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+    changeName = (newName) =&gt; {
+        this.name = newName;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Теперь при использовании данного метода, контекст this не будет определяться в момент вызова метода - он уже определен в момент создания класса</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> К сожалению, в отличии от class bind внутри реализации Object использовать не получится . Однако это возможно будет сделать после описания реализации Object.
+const beepMyCar4 = myCar4.beep.bind(myCar4);
+beepMyCar4();</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможность привязки this в момент (после) создания Object с использованием обычной function declaration</t>
+  </si>
+  <si>
+    <t>Возможность привязки this в момент (после) создания Function с использованием обычной function declaration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function expression как class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> всегда пишется с большой буквы
+function Сar(model){
+    …
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 3 - 00:15:55
+Вопрос - прототип есть ведь и у класса и у объекта (проверить), тогда эта теория относится и к ним тоже</t>
+  </si>
+  <si>
+    <t>INSERT class</t>
+  </si>
+  <si>
+    <t>DELETE class</t>
+  </si>
+  <si>
+    <t>UPDATE class</t>
+  </si>
+  <si>
+    <t>SELECT item</t>
+  </si>
+  <si>
+    <t>SELECT prototype</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prototype - это объект</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> класса Object {}, который содержится в </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>основной функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>или class, начиная сос стандарта s5 js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) и хранит в себе её внутренние функции (inner functions - как inner classes), которые доступны для всех экземпляров </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>основной функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (или class), в которой prototype содержится.</t>
+    </r>
+  </si>
+  <si>
+    <t>Продолжить - 00 19 47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16968,8 +17678,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17064,6 +17799,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -17238,10 +17979,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -17259,164 +18000,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -17425,64 +18166,109 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -19192,10 +19978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -19535,10 +20321,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V404"/>
+  <dimension ref="A2:V393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C395" sqref="C395"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D368" sqref="D368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19690,115 +20476,115 @@
       <c r="F9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
-        <v>70</v>
+      <c r="C10" s="88" t="s">
+        <v>837</v>
       </c>
       <c r="D10" s="22"/>
       <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="F11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8"/>
       <c r="F12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="C18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -19807,101 +20593,101 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="33" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>115</v>
       </c>
       <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="C28" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="22"/>
     </row>
@@ -19915,16 +20701,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -19933,24 +20719,24 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -19959,46 +20745,46 @@
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
       <c r="B34" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="D35" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -20013,10 +20799,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -20025,10 +20811,10 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -20037,10 +20823,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -20049,95 +20835,95 @@
         <v>11</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="22" t="s">
         <v>129</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="20"/>
       <c r="B43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="D43" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="35"/>
       <c r="B44" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>134</v>
-      </c>
       <c r="D44" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -20146,7 +20932,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -20155,158 +20941,158 @@
     <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="20"/>
       <c r="B52" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="C54" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="C55" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
       <c r="C56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="D57" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="35"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -20314,35 +21100,35 @@
     </row>
     <row r="68" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A68" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="41" t="s">
         <v>187</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A69" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="41" t="s">
         <v>191</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -20351,111 +21137,111 @@
     <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="45"/>
       <c r="B71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="41" t="s">
         <v>195</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A72" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="41" t="s">
         <v>199</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A73" s="45"/>
       <c r="B73" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D73" s="41"/>
     </row>
     <row r="74" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A74" s="45"/>
       <c r="C74" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>203</v>
-      </c>
-      <c r="D74" s="41" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A75" s="46"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="48" t="s">
         <v>205</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="41"/>
     </row>
     <row r="77" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A77" s="45"/>
       <c r="B77" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="41" t="s">
         <v>209</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="45"/>
       <c r="C78" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="41"/>
     </row>
     <row r="79" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="45"/>
       <c r="C79" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D79" s="41"/>
     </row>
     <row r="80" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A80" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="41" t="s">
         <v>214</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A81" s="45"/>
       <c r="C81" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D81" s="41"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -20464,172 +21250,175 @@
     <row r="83" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A83" s="45"/>
       <c r="B83" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="41" t="s">
         <v>219</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A84" s="46"/>
       <c r="B84" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="D84" s="48" t="s">
         <v>222</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B85" s="43"/>
       <c r="C85" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D85" s="39"/>
     </row>
     <row r="86" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A86" s="45"/>
       <c r="B86" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="41" t="s">
         <v>227</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A87" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="41" t="s">
         <v>230</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="C88" s="50" t="s">
         <v>233</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>234</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="53" t="s">
         <v>239</v>
-      </c>
-      <c r="B90" s="53" t="s">
-        <v>240</v>
       </c>
       <c r="C90" s="53"/>
       <c r="D90" s="54"/>
     </row>
     <row r="91" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A91" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="C91" s="47" t="s">
         <v>242</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>243</v>
       </c>
       <c r="D91" s="55"/>
     </row>
     <row r="92" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="45"/>
       <c r="B92" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D92" s="41"/>
     </row>
     <row r="93" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A93" s="45"/>
       <c r="B93" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="41" t="s">
         <v>247</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="45"/>
       <c r="C94" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A95" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="84" t="s">
+        <v>844</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="D95" s="41" t="s">
         <v>214</v>
-      </c>
-      <c r="D95" s="41" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A96" s="45"/>
       <c r="C96" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D96" s="41"/>
     </row>
     <row r="97" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A97" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="C97" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="D97" s="48" t="s">
         <v>251</v>
-      </c>
-      <c r="D97" s="48" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -20638,60 +21427,60 @@
     <row r="99" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A99" s="45"/>
       <c r="B99" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="D99" s="41" t="s">
         <v>255</v>
-      </c>
-      <c r="D99" s="41" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="D100" s="41"/>
     </row>
     <row r="101" spans="1:22" ht="261" x14ac:dyDescent="0.35">
       <c r="A101" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B101" s="47" t="s">
+      <c r="C101" s="47" t="s">
         <v>260</v>
-      </c>
-      <c r="C101" s="47" t="s">
-        <v>261</v>
       </c>
       <c r="D101" s="48"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="D104" s="8"/>
     </row>
@@ -20721,25 +21510,25 @@
     <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C107" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="75" t="s">
-        <v>807</v>
+      <c r="D107" s="72" t="s">
+        <v>804</v>
       </c>
       <c r="V107" s="8"/>
     </row>
     <row r="108" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" s="72" t="s">
+        <v>805</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="B108" s="75" t="s">
-        <v>808</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="D108" s="8"/>
     </row>
@@ -20748,10 +21537,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" s="8"/>
     </row>
@@ -20760,7 +21549,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D110" s="8"/>
     </row>
@@ -20769,32 +21558,32 @@
         <v>9</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C112" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D112" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
@@ -20822,10 +21611,10 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>279</v>
-      </c>
-      <c r="C116" s="57" t="s">
-        <v>280</v>
       </c>
       <c r="P116" s="9"/>
       <c r="U116" s="9"/>
@@ -20833,252 +21622,252 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="B121" s="57" t="s">
+      <c r="C121" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="C122" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D122" s="8"/>
     </row>
     <row r="123" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="C123" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D123" s="8"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D124" s="8"/>
     </row>
     <row r="125" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="C125" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="C127" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A128" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="D128" s="8"/>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="D130" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A132" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A133" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D133" s="8"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D137" s="8"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="D141" s="8"/>
     </row>
@@ -21107,10 +21896,10 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C144" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P144" s="9"/>
       <c r="U144" s="9"/>
@@ -21118,238 +21907,238 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="D146" s="8"/>
     </row>
     <row r="147" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="D149" s="8"/>
     </row>
     <row r="150" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C150" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A151" s="58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="D151" s="8"/>
     </row>
     <row r="152" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A152" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B152" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" s="43" t="s">
         <v>352</v>
-      </c>
-      <c r="B152" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="C152" s="43" t="s">
-        <v>353</v>
       </c>
       <c r="D152" s="8"/>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="D154" s="8"/>
     </row>
     <row r="155" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A155" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B155" s="47"/>
       <c r="C155" s="47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D155" s="22"/>
     </row>
     <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="D156" s="8"/>
     </row>
     <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="D157" s="8"/>
     </row>
     <row r="158" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="D159" s="8"/>
     </row>
     <row r="160" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="D160" s="8"/>
     </row>
     <row r="161" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B161" s="43"/>
       <c r="C161" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D161" s="8"/>
     </row>
     <row r="162" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B162" s="47"/>
       <c r="C162" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A164" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D164" s="8"/>
     </row>
     <row r="165" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="D165" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="C166" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="D166" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="C168" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.35">
@@ -21373,10 +22162,10 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C170" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P170" s="9"/>
       <c r="U170" s="9"/>
@@ -21384,134 +22173,134 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="172" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="C172" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B173" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C173" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="B174" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="D174" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="C175" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C176" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B178" s="59"/>
       <c r="C178" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A179" s="56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B179" s="59"/>
     </row>
     <row r="180" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A181" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C182" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="C183" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="D183" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="185" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="C185" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="D185" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.35">
@@ -21535,18 +22324,18 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C187" s="57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V187" s="8"/>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C188" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C189" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.35">
@@ -21570,13 +22359,13 @@
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C192" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="C192" s="57" t="s">
+      <c r="D192" s="9" t="s">
         <v>421</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="P192" s="9"/>
       <c r="U192" s="9"/>
@@ -21584,362 +22373,362 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C193" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B195" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C195" s="8" t="s">
         <v>425</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="C196" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D196" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="D196" s="9" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="C197" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B199" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="D199" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B200" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C201" s="60" t="s">
         <v>438</v>
       </c>
-      <c r="C201" s="60" t="s">
+      <c r="D201" s="9" t="s">
         <v>439</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="B202" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B203" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C203" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B204" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C204" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="D204" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="C205" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="D205" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C206" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="C206" s="60" t="s">
+      <c r="D206" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="C207" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="C208" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="D208" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B209" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C209" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B211" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="C211" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="D211" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C212" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A213" s="8"/>
       <c r="C213" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="C214" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="C215" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A217" s="8"/>
       <c r="C217" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B219" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C219" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="D219" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B220" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="C220" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D220" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="B221" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D221" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="D222" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B223" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="C223" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D223" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B224" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="C224" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="D224" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="C225" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="D225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B226" s="8" t="s">
         <v>501</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>502</v>
       </c>
       <c r="D226" s="8"/>
     </row>
     <row r="227" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B227" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="C227" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="D227" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A228" s="8"/>
       <c r="B228" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D228" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D229" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B230" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C230" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -21956,113 +22745,113 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A238" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D238" s="1"/>
     </row>
     <row r="239" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
     </row>
     <row r="241" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="D242" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D243" s="1"/>
     </row>
@@ -22070,109 +22859,109 @@
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D244" s="1"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" s="50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D245" s="1"/>
     </row>
     <row r="246" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C246" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C246" s="8" t="s">
+      <c r="D246" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D247" s="1"/>
     </row>
     <row r="248" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="D248" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B250" s="62" t="s">
         <v>554</v>
       </c>
-      <c r="B250" s="62" t="s">
+      <c r="C250" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="D250" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D251" s="1"/>
     </row>
     <row r="252" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C252" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -22180,38 +22969,38 @@
     </row>
     <row r="254" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="D254" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
       <c r="B255" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="D255" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.35">
@@ -22235,13 +23024,13 @@
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C259" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="C259" s="57" t="s">
-        <v>570</v>
-      </c>
       <c r="D259" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P259" s="9"/>
       <c r="U259" s="9"/>
@@ -22249,75 +23038,75 @@
     </row>
     <row r="260" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B260" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C260" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="C261" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="D261" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="D261" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B262" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="C262" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C262" s="8" t="s">
+      <c r="D262" s="9" t="s">
         <v>579</v>
-      </c>
-      <c r="D262" s="9" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="C263" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C263" s="8" t="s">
+      <c r="D263" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="D263" s="9" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A264" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C264" s="8" t="s">
         <v>585</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="C266" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C267" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
@@ -22325,21 +23114,21 @@
         <v>5</v>
       </c>
       <c r="C268" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D268" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="D268" s="9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B269" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C269" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C269" s="8" t="s">
+      <c r="D269" s="9" t="s">
         <v>592</v>
-      </c>
-      <c r="D269" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.35">
@@ -22363,13 +23152,13 @@
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A272" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C272" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="C272" s="57" t="s">
-        <v>595</v>
-      </c>
       <c r="D272" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P272" s="9"/>
       <c r="U272" s="9"/>
@@ -22377,136 +23166,136 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D273" s="9" t="s">
         <v>596</v>
-      </c>
-      <c r="D273" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="B274" s="63" t="s">
+        <v>597</v>
+      </c>
+      <c r="C274" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="D274" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="B275" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C275" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B276" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C276" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="C276" s="21" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="C277" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B279" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C279" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D280" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B281" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="C281" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B282" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C282" s="63" t="s">
         <v>614</v>
-      </c>
-      <c r="C282" s="63" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="C284" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B285" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C285" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="D285" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="D285" s="9" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A286" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B286" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="C286" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B287" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C287" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="D287" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B288" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C288" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.35">
@@ -22530,10 +23319,10 @@
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A291" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C291" s="57" t="s">
         <v>629</v>
-      </c>
-      <c r="C291" s="57" t="s">
-        <v>630</v>
       </c>
       <c r="P291" s="9"/>
       <c r="U291" s="9"/>
@@ -22541,10 +23330,10 @@
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A292" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="B292" s="56" t="s">
         <v>631</v>
-      </c>
-      <c r="B292" s="56" t="s">
-        <v>632</v>
       </c>
       <c r="C292" s="56"/>
       <c r="D292" s="7"/>
@@ -22552,107 +23341,107 @@
     <row r="293" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A293" s="8"/>
       <c r="B293" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C293" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B294" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="C294" s="64" t="s">
         <v>635</v>
-      </c>
-      <c r="C294" s="64" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B295" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="B295" s="8" t="s">
+      <c r="C295" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A296" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="B296" s="56" t="s">
         <v>640</v>
-      </c>
-      <c r="B296" s="56" t="s">
-        <v>641</v>
       </c>
       <c r="C296" s="56"/>
       <c r="D296" s="7"/>
     </row>
     <row r="297" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C297" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A298" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B299" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C299" s="8" t="s">
         <v>645</v>
-      </c>
-      <c r="C299" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A300" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="B300" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="B300" s="64" t="s">
+      <c r="C300" s="64" t="s">
         <v>648</v>
       </c>
-      <c r="C300" s="64" t="s">
+      <c r="D300" s="64" t="s">
         <v>649</v>
-      </c>
-      <c r="D300" s="64" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B301" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C301" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="D301" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C302" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D302" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="D303" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A308" s="80" t="s">
-        <v>809</v>
-      </c>
-      <c r="B308" s="80"/>
-      <c r="C308" s="80"/>
-      <c r="D308" s="80"/>
+      <c r="A308" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="B308" s="90"/>
+      <c r="C308" s="90"/>
+      <c r="D308" s="90"/>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A309" s="13"/>
@@ -22675,13 +23464,13 @@
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C310" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="C310" s="57" t="s">
+      <c r="D310" s="9" t="s">
         <v>658</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>659</v>
       </c>
       <c r="P310" s="9"/>
       <c r="U310" s="9"/>
@@ -22689,17 +23478,17 @@
     </row>
     <row r="311" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="C311" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A312" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="C313" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.35">
@@ -22723,13 +23512,13 @@
     </row>
     <row r="316" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A316" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C316" s="57" t="s">
         <v>663</v>
       </c>
-      <c r="C316" s="57" t="s">
-        <v>664</v>
-      </c>
       <c r="D316" s="8" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="P316" s="9"/>
       <c r="U316" s="9"/>
@@ -22737,7 +23526,7 @@
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P317" s="9"/>
       <c r="U317" s="9"/>
@@ -22745,7 +23534,7 @@
     </row>
     <row r="318" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C318" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P318" s="9"/>
       <c r="U318" s="9"/>
@@ -22753,7 +23542,7 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P319" s="9"/>
       <c r="U319" s="9"/>
@@ -22761,10 +23550,10 @@
     </row>
     <row r="320" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="B320" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C320" s="8" t="s">
         <v>668</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>669</v>
       </c>
       <c r="P320" s="9"/>
       <c r="U320" s="9"/>
@@ -22772,7 +23561,7 @@
     </row>
     <row r="321" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A321" s="56" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P321" s="9"/>
       <c r="U321" s="9"/>
@@ -22780,10 +23569,10 @@
     </row>
     <row r="322" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B322" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="C322" s="81" t="s">
-        <v>811</v>
+        <v>670</v>
+      </c>
+      <c r="C322" s="72" t="s">
+        <v>808</v>
       </c>
       <c r="P322" s="9"/>
       <c r="U322" s="9"/>
@@ -22791,41 +23580,41 @@
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A323" s="27" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
       <c r="B324" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C324" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="D324" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A325" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="B326" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C326" s="8" t="s">
         <v>677</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A327" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C328" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.35">
@@ -22849,10 +23638,10 @@
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C331" s="57" t="s">
         <v>681</v>
-      </c>
-      <c r="C331" s="57" t="s">
-        <v>682</v>
       </c>
       <c r="P331" s="9"/>
       <c r="U331" s="9"/>
@@ -22860,35 +23649,35 @@
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C332" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="D332" s="64" t="s">
         <v>683</v>
-      </c>
-      <c r="D332" s="64" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="B333" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C333" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="C333" s="8" t="s">
+      <c r="D333" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A334" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B334" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="C334" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C334" s="8" t="s">
+      <c r="D334" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="D334" s="8" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.35">
@@ -22914,307 +23703,494 @@
       <c r="S336" s="14"/>
       <c r="U336" s="14"/>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="C337" s="57" t="s">
-        <v>693</v>
+        <v>691</v>
+      </c>
+      <c r="C337" s="87" t="s">
+        <v>835</v>
       </c>
       <c r="V337" s="8"/>
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A338" s="74" t="s">
-        <v>794</v>
-      </c>
-      <c r="B338" s="72"/>
-      <c r="C338" s="72"/>
-      <c r="D338" s="73"/>
+      <c r="A338" s="86" t="s">
+        <v>830</v>
+      </c>
+      <c r="B338" s="70"/>
+      <c r="C338" s="70"/>
+      <c r="D338" s="71"/>
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A339" s="65" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C340" s="75" t="s">
-        <v>816</v>
+      <c r="C340" s="72" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="341" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A341" s="64" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B342" s="8" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A343" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="344" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C344" s="8" t="s">
-        <v>698</v>
+      <c r="C344" s="92" t="s">
+        <v>696</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A345" s="57" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B346" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A347" s="77" t="s">
+        <v>823</v>
+      </c>
+      <c r="B347" s="79" t="s">
         <v>700</v>
       </c>
-      <c r="C346" s="8" t="s">
+      <c r="C347" s="80"/>
+      <c r="D347" s="81"/>
+    </row>
+    <row r="348" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A348" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="B348" s="72" t="s">
+        <v>811</v>
+      </c>
+      <c r="C348" s="72" t="s">
+        <v>814</v>
+      </c>
+      <c r="D348" s="72" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A349" s="72" t="s">
+        <v>810</v>
+      </c>
+      <c r="C349" s="92" t="s">
+        <v>812</v>
+      </c>
+      <c r="D349" s="72" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A350" s="77" t="s">
+        <v>851</v>
+      </c>
+      <c r="C350" s="92"/>
+      <c r="D350" s="72"/>
+    </row>
+    <row r="351" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A351" s="72"/>
+      <c r="C351" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="D351" s="72"/>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A352" s="13"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="13"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="14"/>
+      <c r="H352" s="13"/>
+      <c r="I352" s="13"/>
+      <c r="K352" s="13"/>
+      <c r="L352" s="13"/>
+      <c r="M352" s="13"/>
+      <c r="N352" s="13"/>
+      <c r="P352" s="14"/>
+      <c r="Q352" s="14"/>
+      <c r="R352" s="14"/>
+      <c r="S352" s="14"/>
+      <c r="U352" s="14"/>
+    </row>
+    <row r="353" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A353" s="78" t="s">
+        <v>832</v>
+      </c>
+      <c r="C353" s="87" t="s">
+        <v>833</v>
+      </c>
+      <c r="V353" s="8"/>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A354" s="93" t="s">
+        <v>791</v>
+      </c>
+      <c r="B354" s="70"/>
+      <c r="C354" s="70"/>
+      <c r="D354" s="71"/>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A355" s="65" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B356" s="92" t="s">
+        <v>853</v>
+      </c>
+      <c r="C356" s="92" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A357" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="C357" s="72" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A358" s="72" t="s">
+        <v>810</v>
+      </c>
+      <c r="C358" s="72" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A359" s="73" t="s">
+        <v>793</v>
+      </c>
+      <c r="B359" s="72" t="s">
+        <v>792</v>
+      </c>
+      <c r="C359" s="92" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A360" s="64" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="347" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A347" s="82" t="s">
+    <row r="361" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A361" s="8"/>
+      <c r="C361" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A362" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B363" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C363" s="92" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C364" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A365" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F365" s="97" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A366" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D366" s="94" t="s">
+        <v>854</v>
+      </c>
+      <c r="F366" s="95" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B367" s="97" t="s">
+        <v>859</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F367" s="96" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A368" s="8"/>
+      <c r="D368" s="98" t="s">
+        <v>861</v>
+      </c>
+      <c r="F368" s="97" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A369" s="8"/>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A370" s="74" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A371" s="75" t="s">
+        <v>801</v>
+      </c>
+      <c r="C371" s="84" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A372" s="72" t="s">
+        <v>797</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C372" s="72" t="s">
+        <v>705</v>
+      </c>
+      <c r="D372" s="78" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A373" s="75" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="72" t="s">
+        <v>796</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A375" s="8"/>
+      <c r="B375" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C375" s="72" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A376" s="75" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A377" s="72" t="s">
+        <v>795</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A378" s="77" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A379" s="72" t="s">
+        <v>798</v>
+      </c>
+      <c r="B379" s="72" t="s">
+        <v>799</v>
+      </c>
+      <c r="C379" s="72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A380" s="72"/>
+      <c r="B380" s="72"/>
+      <c r="C380" s="72"/>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A381" s="13"/>
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="D381" s="13"/>
+      <c r="F381" s="13"/>
+      <c r="G381" s="14"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+      <c r="K381" s="13"/>
+      <c r="L381" s="13"/>
+      <c r="M381" s="13"/>
+      <c r="N381" s="13"/>
+      <c r="P381" s="14"/>
+      <c r="Q381" s="14"/>
+      <c r="R381" s="14"/>
+      <c r="S381" s="14"/>
+      <c r="U381" s="14"/>
+    </row>
+    <row r="382" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A382" s="78" t="s">
+        <v>836</v>
+      </c>
+      <c r="C382" s="87" t="s">
+        <v>834</v>
+      </c>
+      <c r="V382" s="8"/>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A383" s="86" t="s">
+        <v>831</v>
+      </c>
+      <c r="D383" s="78" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="A384" s="84" t="s">
+        <v>845</v>
+      </c>
+      <c r="C384" s="84" t="s">
+        <v>846</v>
+      </c>
+      <c r="D384" s="73"/>
+    </row>
+    <row r="385" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A385" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="B385" s="79" t="s">
         <v>821</v>
       </c>
-      <c r="B347" s="60" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="348" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="75" t="s">
-        <v>812</v>
-      </c>
-      <c r="B348" s="75" t="s">
-        <v>814</v>
-      </c>
-      <c r="C348" s="75" t="s">
-        <v>817</v>
-      </c>
-      <c r="D348" s="75" t="s">
+      <c r="C385" s="83" t="s">
+        <v>824</v>
+      </c>
+      <c r="D385" s="82" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="349" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A349" s="75" t="s">
-        <v>813</v>
-      </c>
-      <c r="C349" s="75" t="s">
-        <v>815</v>
-      </c>
-      <c r="D349" s="75" t="s">
+    <row r="386" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A386" s="84" t="s">
+        <v>825</v>
+      </c>
+      <c r="C386" s="8" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A350" s="74" t="s">
-        <v>793</v>
-      </c>
-      <c r="B350" s="72"/>
-      <c r="C350" s="72"/>
-      <c r="D350" s="73"/>
-    </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A351" s="65" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="352" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C352" s="75" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A353" s="75" t="s">
-        <v>812</v>
-      </c>
-      <c r="C353" s="75" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" s="75" t="s">
-        <v>813</v>
-      </c>
-      <c r="C354" s="75" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A355" s="76" t="s">
-        <v>796</v>
-      </c>
-      <c r="B355" s="75" t="s">
-        <v>795</v>
-      </c>
-      <c r="C355" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A356" s="64" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A357" s="8"/>
-      <c r="C357" s="8" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="B359" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C359" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="C360" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A361" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C361" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B363" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C363" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" s="8"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" s="8"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" s="77" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" s="78" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A368" s="75" t="s">
-        <v>800</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C368" s="75" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" s="78" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A370" s="75" t="s">
-        <v>799</v>
-      </c>
-      <c r="B370" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C370" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A371" s="8"/>
-      <c r="B371" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="C371" s="75" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" s="78" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A373" s="75" t="s">
-        <v>798</v>
-      </c>
-      <c r="B373" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" s="75"/>
-    </row>
-    <row r="375" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A375" s="75" t="s">
-        <v>801</v>
-      </c>
-      <c r="B375" s="75" t="s">
-        <v>802</v>
-      </c>
-      <c r="C375" s="75" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" s="8"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="74" t="s">
-        <v>823</v>
-      </c>
-      <c r="D394" s="76" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="D395" s="83" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A404" s="82" t="s">
-        <v>822</v>
+    <row r="387" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A387" s="77" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A388" s="8"/>
+      <c r="B388" s="92" t="s">
+        <v>849</v>
+      </c>
+      <c r="C388" s="92" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A389" s="85" t="s">
+        <v>826</v>
+      </c>
+      <c r="D389" s="78" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="B390" s="84" t="s">
+        <v>829</v>
+      </c>
+      <c r="C390" s="84" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A391" s="13"/>
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
+      <c r="D391" s="13"/>
+      <c r="F391" s="13"/>
+      <c r="G391" s="14"/>
+      <c r="H391" s="13"/>
+      <c r="I391" s="13"/>
+      <c r="K391" s="13"/>
+      <c r="L391" s="13"/>
+      <c r="M391" s="13"/>
+      <c r="N391" s="13"/>
+      <c r="P391" s="14"/>
+      <c r="Q391" s="14"/>
+      <c r="R391" s="14"/>
+      <c r="S391" s="14"/>
+      <c r="U391" s="14"/>
+    </row>
+    <row r="392" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A392" s="78" t="s">
+        <v>840</v>
+      </c>
+      <c r="C392" s="87" t="s">
+        <v>841</v>
+      </c>
+      <c r="V392" s="8"/>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C393" s="84" t="s">
+        <v>842</v>
+      </c>
+      <c r="D393" s="78" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -23225,8 +24201,8 @@
     <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -23273,10 +24249,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -23299,11 +24275,11 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="57" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D3" s="9"/>
       <c r="P3" s="1"/>
@@ -23312,7 +24288,7 @@
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -23336,16 +24312,16 @@
     <row r="5" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -23355,16 +24331,16 @@
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="7"/>
@@ -23372,13 +24348,13 @@
     <row r="9" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>719</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
@@ -23393,48 +24369,48 @@
     </row>
     <row r="11" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>723</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>727</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="65" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -23442,10 +24418,10 @@
     <row r="15" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -23457,10 +24433,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -23474,7 +24450,7 @@
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -23482,14 +24458,14 @@
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="68" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
@@ -23570,10 +24546,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -23596,7 +24572,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
@@ -23604,10 +24580,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
@@ -23615,13 +24591,13 @@
     </row>
     <row r="5" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>806</v>
+        <v>742</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>803</v>
       </c>
       <c r="P5" s="1"/>
       <c r="U5" s="1"/>
@@ -23629,13 +24605,13 @@
     </row>
     <row r="6" spans="1:22" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="P6" s="1"/>
       <c r="U6" s="1"/>
@@ -23643,10 +24619,10 @@
     </row>
     <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="P7" s="1"/>
       <c r="U7" s="1"/>
@@ -23654,7 +24630,7 @@
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -23677,37 +24653,37 @@
     </row>
     <row r="9" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>806</v>
+        <v>753</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
@@ -23715,96 +24691,96 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C21" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C26" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C27" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -23890,10 +24866,10 @@
     </row>
     <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>52</v>
@@ -23904,19 +24880,19 @@
     </row>
     <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="69"/>
     </row>
     <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="69"/>
     </row>
@@ -23928,62 +24904,62 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -24036,12 +25012,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
-        <v>792</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="A1" s="91" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>

--- a/Самообучение_#_$$_JavaScript_Back.xlsx
+++ b/Самообучение_#_$$_JavaScript_Back.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E556C7-D6A9-4748-B221-35FA0C7EF834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C06D23E-1D83-4FF5-9FB0-F4DF33596863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="861">
   <si>
     <t>Крутой онлайн debugger</t>
   </si>
@@ -17241,6 +17241,197 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Теперь при использовании данного метода, контекст this не будет определяться в момент вызова метода - он уже определен в момент создания класса</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> К сожалению, в отличии от class bind внутри реализации Object использовать не получится . Однако это возможно будет сделать после описания реализации Object.
+const beepMyCar4 = myCar4.beep.bind(myCar4);
+beepMyCar4();</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможность привязки this в момент (после) создания Object с использованием обычной function declaration</t>
+  </si>
+  <si>
+    <t>Возможность привязки this в момент (после) создания Function с использованием обычной function declaration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Function expression как class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> всегда пишется с большой буквы
+function Сar(model){
+    …
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>INSERT class</t>
+  </si>
+  <si>
+    <t>DELETE class</t>
+  </si>
+  <si>
+    <t>UPDATE class</t>
+  </si>
+  <si>
+    <t>SELECT item</t>
+  </si>
+  <si>
+    <t>SELECT prototype</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prototype - это объект</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> класса Object {}, который содержится в </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>основной функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>или class, начиная сос стандарта s5 js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) и хранит в себе её внутренние функции (inner functions - как inner classes), которые доступны для всех экземпляров </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>основной функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (или class), в которой prototype содержится.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">class Person {
     name = 'John';
     age = 25;
@@ -17251,6 +17442,7 @@
     <r>
       <rPr>
         <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -17258,7 +17450,19 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>this.changeName = this.changeName.bind(this); //используем, чтобы привязать все методы класса к контексту - текущему объекту (this)</t>
+      <t>this.changeName = this.changeName.bind(this);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //используем, чтобы привязать все методы класса к контексту - текущему объекту (this)</t>
     </r>
     <r>
       <rPr>
@@ -17276,213 +17480,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Пояснение! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Теперь при использовании данного метода, контекст this не будет определяться в момент вызова метода - он уже определен в момент создания класса</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Пояснение!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> К сожалению, в отличии от class bind внутри реализации Object использовать не получится . Однако это возможно будет сделать после описания реализации Object.
-const beepMyCar4 = myCar4.beep.bind(myCar4);
-beepMyCar4();</t>
-    </r>
-  </si>
-  <si>
-    <t>Возможность привязки this в момент (после) создания Object с использованием обычной function declaration</t>
-  </si>
-  <si>
-    <t>Возможность привязки this в момент (после) создания Function с использованием обычной function declaration</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Важно! </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Function expression как class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> всегда пишется с большой буквы
-function Сar(model){
-    …
-}</t>
-    </r>
-  </si>
-  <si>
-    <t>Семинар 3 - 00:15:55
-Вопрос - прототип есть ведь и у класса и у объекта (проверить), тогда эта теория относится и к ним тоже</t>
-  </si>
-  <si>
-    <t>INSERT class</t>
-  </si>
-  <si>
-    <t>DELETE class</t>
-  </si>
-  <si>
-    <t>UPDATE class</t>
-  </si>
-  <si>
-    <t>SELECT item</t>
-  </si>
-  <si>
-    <t>SELECT prototype</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prototype - это объект</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> класса Object {}, который содержится в </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>основной функции</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>или class, начиная сос стандарта s5 js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) и хранит в себе её внутренние функции (inner functions - как inner classes), которые доступны для всех экземпляров </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>основной функции</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (или class), в которой prototype содержится.</t>
-    </r>
-  </si>
-  <si>
-    <t>Продолжить - 00 19 47</t>
+    <t>Семинар 3 - 00:19:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17703,8 +17728,18 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17792,12 +17827,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17979,10 +18008,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -18000,164 +18029,164 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -18166,113 +18195,116 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19978,10 +20010,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -20323,8 +20355,8 @@
   </sheetPr>
   <dimension ref="A2:V393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D368" sqref="D368"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23436,12 +23468,12 @@
       </c>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A308" s="90" t="s">
+      <c r="A308" s="96" t="s">
         <v>806</v>
       </c>
-      <c r="B308" s="90"/>
-      <c r="C308" s="90"/>
-      <c r="D308" s="90"/>
+      <c r="B308" s="96"/>
+      <c r="C308" s="96"/>
+      <c r="D308" s="96"/>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A309" s="13"/>
@@ -23749,7 +23781,7 @@
       </c>
     </row>
     <row r="344" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C344" s="92" t="s">
+      <c r="C344" s="89" t="s">
         <v>696</v>
       </c>
       <c r="D344" s="8" t="s">
@@ -23797,7 +23829,7 @@
       <c r="A349" s="72" t="s">
         <v>810</v>
       </c>
-      <c r="C349" s="92" t="s">
+      <c r="C349" s="89" t="s">
         <v>812</v>
       </c>
       <c r="D349" s="72" t="s">
@@ -23806,15 +23838,15 @@
     </row>
     <row r="350" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A350" s="77" t="s">
-        <v>851</v>
-      </c>
-      <c r="C350" s="92"/>
+        <v>850</v>
+      </c>
+      <c r="C350" s="89"/>
       <c r="D350" s="72"/>
     </row>
     <row r="351" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A351" s="72"/>
-      <c r="C351" s="92" t="s">
-        <v>850</v>
+      <c r="C351" s="89" t="s">
+        <v>849</v>
       </c>
       <c r="D351" s="72"/>
     </row>
@@ -23847,7 +23879,7 @@
       <c r="V353" s="8"/>
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A354" s="93" t="s">
+      <c r="A354" s="90" t="s">
         <v>791</v>
       </c>
       <c r="B354" s="70"/>
@@ -23860,10 +23892,10 @@
       </c>
     </row>
     <row r="356" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="B356" s="92" t="s">
-        <v>853</v>
-      </c>
-      <c r="C356" s="92" t="s">
+      <c r="B356" s="89" t="s">
+        <v>852</v>
+      </c>
+      <c r="C356" s="89" t="s">
         <v>813</v>
       </c>
     </row>
@@ -23890,7 +23922,7 @@
       <c r="B359" s="72" t="s">
         <v>792</v>
       </c>
-      <c r="C359" s="92" t="s">
+      <c r="C359" s="89" t="s">
         <v>462</v>
       </c>
     </row>
@@ -23914,8 +23946,8 @@
       <c r="B363" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C363" s="92" t="s">
-        <v>860</v>
+      <c r="C363" s="89" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -23933,39 +23965,37 @@
       <c r="C365" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F365" s="97" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="366" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F365" s="93" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="D366" s="94" t="s">
-        <v>854</v>
-      </c>
-      <c r="F366" s="95" t="s">
-        <v>855</v>
+      <c r="D366" s="99" t="s">
+        <v>860</v>
+      </c>
+      <c r="F366" s="91" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="367" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B367" s="97" t="s">
-        <v>859</v>
+      <c r="B367" s="93" t="s">
+        <v>857</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="F367" s="96" t="s">
-        <v>856</v>
+      <c r="F367" s="92" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A368" s="8"/>
-      <c r="D368" s="98" t="s">
-        <v>861</v>
-      </c>
-      <c r="F368" s="97" t="s">
-        <v>857</v>
+      <c r="D368" s="98"/>
+      <c r="F368" s="93" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.35">
@@ -24041,7 +24071,7 @@
     </row>
     <row r="378" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A378" s="77" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="379" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -24134,11 +24164,11 @@
     </row>
     <row r="388" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A388" s="8"/>
-      <c r="B388" s="92" t="s">
-        <v>849</v>
-      </c>
-      <c r="C388" s="92" t="s">
+      <c r="B388" s="89" t="s">
         <v>848</v>
+      </c>
+      <c r="C388" s="94" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.35">
@@ -24249,10 +24279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -24546,10 +24576,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
@@ -25012,12 +25042,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="97" t="s">
         <v>790</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
